--- a/artfynd/A 32341-2025 artfynd.xlsx
+++ b/artfynd/A 32341-2025 artfynd.xlsx
@@ -9241,7 +9241,7 @@
         <v>128404962</v>
       </c>
       <c r="B86" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
